--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/NORTH_DAKOTA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/NORTH_DAKOTA_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Temosachi</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Cuquio</t>
@@ -877,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Yurecuaro</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1126,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1188,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -1201,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1253,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -1266,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1297,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -1310,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1341,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1354,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -1367,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Pedro De La Cueva</t>
@@ -1380,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1411,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1442,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1455,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1468,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1499,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
